--- a/pbio.xlsx
+++ b/pbio.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliseyas/Documents/College/1. MSRI-UP 2023/TDR-GroupA-Day1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773E7FF0-B548-B645-B28C-041C29F83B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36820" yWindow="1320" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="500" windowWidth="28360" windowHeight="11280" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S4.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -501,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -540,6 +546,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -864,16 +878,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DP76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:DP1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:120">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1235,7 +1249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:120">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>80</v>
       </c>
@@ -1597,7 +1611,7 @@
         <v>-0.12688208000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:120">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -1959,7 +1973,7 @@
         <v>-0.19437694999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:120">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -2321,7 +2335,7 @@
         <v>6.3290120000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:120">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -2683,7 +2697,7 @@
         <v>-0.11797762000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:120">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -3045,7 +3059,7 @@
         <v>-3.6530500000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:120">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -3407,7 +3421,7 @@
         <v>-0.13227320000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:120">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -3769,7 +3783,7 @@
         <v>8.9875700000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:120">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4131,7 +4145,7 @@
         <v>-2.3169993999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:120">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4493,7 +4507,7 @@
         <v>9.5687389999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:120">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -4855,7 +4869,7 @@
         <v>-3.6353587999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:120">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -5217,7 +5231,7 @@
         <v>-0.14762544999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:120">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -5579,7 +5593,7 @@
         <v>-0.164886</v>
       </c>
     </row>
-    <row r="14" spans="1:120">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -5941,7 +5955,7 @@
         <v>-9.5171930000000002E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:120">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -6303,7 +6317,7 @@
         <v>-0.11752462399999999</v>
       </c>
     </row>
-    <row r="16" spans="1:120">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -6665,7 +6679,7 @@
         <v>1.0124207E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:120">
+    <row r="17" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -7027,7 +7041,7 @@
         <v>0.10825825</v>
       </c>
     </row>
-    <row r="18" spans="1:120">
+    <row r="18" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -7389,7 +7403,7 @@
         <v>-1.2317658E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:120">
+    <row r="19" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -7751,7 +7765,7 @@
         <v>-8.3809376000000005E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:120">
+    <row r="20" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -8113,7 +8127,7 @@
         <v>-4.2652607000000002E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:120">
+    <row r="21" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -8475,7 +8489,7 @@
         <v>1.257515E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:120">
+    <row r="22" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -8837,7 +8851,7 @@
         <v>7.0236205999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:120">
+    <row r="23" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -9199,7 +9213,7 @@
         <v>-7.278919E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:120">
+    <row r="24" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -9561,7 +9575,7 @@
         <v>-7.7161309999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:120">
+    <row r="25" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -9923,7 +9937,7 @@
         <v>6.0628413999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:120">
+    <row r="26" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -10285,7 +10299,7 @@
         <v>-0.17998552000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:120">
+    <row r="27" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -10647,7 +10661,7 @@
         <v>-0.18757391000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:120">
+    <row r="28" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>109</v>
       </c>
@@ -11009,7 +11023,7 @@
         <v>-9.0813639999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:120">
+    <row r="29" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -11371,7 +11385,7 @@
         <v>2.5753498E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:120">
+    <row r="30" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -11733,7 +11747,7 @@
         <v>-0.14225721</v>
       </c>
     </row>
-    <row r="31" spans="1:120">
+    <row r="31" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>112</v>
       </c>
@@ -12095,7 +12109,7 @@
         <v>-7.0743083999999998E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:120">
+    <row r="32" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -12457,7 +12471,7 @@
         <v>0.10199118</v>
       </c>
     </row>
-    <row r="33" spans="1:120">
+    <row r="33" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -12819,7 +12833,7 @@
         <v>1.5777111E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:120">
+    <row r="34" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>115</v>
       </c>
@@ -13181,7 +13195,7 @@
         <v>-3.4045696E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:120">
+    <row r="35" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -13543,7 +13557,7 @@
         <v>-0.19420862</v>
       </c>
     </row>
-    <row r="36" spans="1:120">
+    <row r="36" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>117</v>
       </c>
@@ -13905,7 +13919,7 @@
         <v>-0.18696117000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:120">
+    <row r="37" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>118</v>
       </c>
@@ -14267,7 +14281,7 @@
         <v>-0.4972396</v>
       </c>
     </row>
-    <row r="38" spans="1:120">
+    <row r="38" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -14629,7 +14643,7 @@
         <v>-0.31062746000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:120">
+    <row r="39" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>120</v>
       </c>
@@ -14991,7 +15005,7 @@
         <v>-0.11266661</v>
       </c>
     </row>
-    <row r="40" spans="1:120">
+    <row r="40" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -15353,7 +15367,7 @@
         <v>-0.107103825</v>
       </c>
     </row>
-    <row r="41" spans="1:120">
+    <row r="41" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>122</v>
       </c>
@@ -15715,7 +15729,7 @@
         <v>-4.2403697999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:120">
+    <row r="42" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>123</v>
       </c>
@@ -16077,7 +16091,7 @@
         <v>-7.3931220000000006E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:120">
+    <row r="43" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -16439,7 +16453,7 @@
         <v>-5.3614615999999997E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:120">
+    <row r="44" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -16801,7 +16815,7 @@
         <v>-9.4813350000000005E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:120">
+    <row r="45" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>126</v>
       </c>
@@ -17163,7 +17177,7 @@
         <v>0.103498936</v>
       </c>
     </row>
-    <row r="46" spans="1:120">
+    <row r="46" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>127</v>
       </c>
@@ -17525,7 +17539,7 @@
         <v>-0.11390686</v>
       </c>
     </row>
-    <row r="47" spans="1:120">
+    <row r="47" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>128</v>
       </c>
@@ -17887,7 +17901,7 @@
         <v>-4.2960643999999999E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:120">
+    <row r="48" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -18249,7 +18263,7 @@
         <v>-8.0243590000000004E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:120">
+    <row r="49" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>130</v>
       </c>
@@ -18611,7 +18625,7 @@
         <v>-5.5126666999999997E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:120">
+    <row r="50" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>131</v>
       </c>
@@ -18973,7 +18987,7 @@
         <v>4.8429965999999998E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:120">
+    <row r="51" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>132</v>
       </c>
@@ -19335,7 +19349,7 @@
         <v>-5.5519579999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:120">
+    <row r="52" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>133</v>
       </c>
@@ -19697,7 +19711,7 @@
         <v>-0.229321</v>
       </c>
     </row>
-    <row r="53" spans="1:120">
+    <row r="53" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>135</v>
       </c>
@@ -20059,7 +20073,7 @@
         <v>-0.13473845000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:120">
+    <row r="54" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -20421,7 +20435,7 @@
         <v>5.7082652999999997E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:120">
+    <row r="55" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>137</v>
       </c>
@@ -20783,7 +20797,7 @@
         <v>-0.23054074999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:120">
+    <row r="56" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>138</v>
       </c>
@@ -21145,7 +21159,7 @@
         <v>-0.12515019999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:120">
+    <row r="57" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>139</v>
       </c>
@@ -21507,7 +21521,7 @@
         <v>-0.16328287</v>
       </c>
     </row>
-    <row r="58" spans="1:120">
+    <row r="58" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>140</v>
       </c>
@@ -21869,7 +21883,7 @@
         <v>3.1763553999999999E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:120">
+    <row r="59" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -22231,7 +22245,7 @@
         <v>0.15744925000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:120">
+    <row r="60" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>142</v>
       </c>
@@ -22593,7 +22607,7 @@
         <v>0.16605806000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:120">
+    <row r="61" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>143</v>
       </c>
@@ -22955,7 +22969,7 @@
         <v>3.8803576999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:120">
+    <row r="62" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>144</v>
       </c>
@@ -23317,7 +23331,7 @@
         <v>-9.0960025999999999E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:120">
+    <row r="63" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>145</v>
       </c>
@@ -23679,7 +23693,7 @@
         <v>-1.9479275000000001E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:120">
+    <row r="64" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -24041,7 +24055,7 @@
         <v>-0.29843377999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:120">
+    <row r="65" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>147</v>
       </c>
@@ -24403,7 +24417,7 @@
         <v>-9.5202919999999996E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:120">
+    <row r="66" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -24765,7 +24779,7 @@
         <v>6.456518E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:120">
+    <row r="67" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>149</v>
       </c>
@@ -25127,7 +25141,7 @@
         <v>7.3295120000000005E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:120">
+    <row r="68" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -25489,7 +25503,7 @@
         <v>-6.6847800000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:120">
+    <row r="69" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -25851,7 +25865,7 @@
         <v>8.0922599999999997E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:120">
+    <row r="70" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>152</v>
       </c>
@@ -26213,7 +26227,7 @@
         <v>8.3683489999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:120">
+    <row r="71" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>153</v>
       </c>
@@ -26575,7 +26589,7 @@
         <v>0.20765923999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:120">
+    <row r="72" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>154</v>
       </c>
@@ -26937,7 +26951,7 @@
         <v>0.16708708</v>
       </c>
     </row>
-    <row r="73" spans="1:120">
+    <row r="73" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>155</v>
       </c>
@@ -27299,7 +27313,7 @@
         <v>6.1620235000000002E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:120">
+    <row r="74" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>156</v>
       </c>
@@ -27661,7 +27675,7 @@
         <v>0.11575174000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:120">
+    <row r="75" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>157</v>
       </c>
@@ -28023,7 +28037,7 @@
         <v>-0.23302221000000001</v>
       </c>
     </row>
-    <row r="76" spans="1:120">
+    <row r="76" spans="1:120" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>158</v>
       </c>
